--- a/Test.xlsx
+++ b/Test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Optimize_Method</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>OPTIMAL</t>
+  </si>
+  <si>
+    <t>SOS1</t>
+  </si>
+  <si>
+    <t>ProductMode</t>
+  </si>
+  <si>
+    <t>LOCALLY_SOLVED</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,13 +482,13 @@
         <v>6.133333333333334</v>
       </c>
       <c r="E2">
-        <v>0.000770365</v>
+        <v>0.00077275</v>
       </c>
       <c r="F2">
-        <v>0.019883075</v>
+        <v>0.027041934</v>
       </c>
       <c r="G2">
-        <v>0.0009477302147756222</v>
+        <v>0.0010195864177589852</v>
       </c>
       <c r="H2">
         <v>1686</v>
@@ -492,6 +501,76 @@
       </c>
       <c r="K2">
         <v>0.5333333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>6.133333333333333</v>
+      </c>
+      <c r="E3">
+        <v>0.005977983</v>
+      </c>
+      <c r="F3">
+        <v>0.019174927</v>
+      </c>
+      <c r="G3">
+        <v>0.008398565614478114</v>
+      </c>
+      <c r="H3">
+        <v>2583</v>
+      </c>
+      <c r="I3">
+        <v>0.12732696533203125</v>
+      </c>
+      <c r="J3">
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="K3">
+        <v>0.5333333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>6.133333274198073</v>
+      </c>
+      <c r="E4">
+        <v>0.02261963</v>
+      </c>
+      <c r="F4">
+        <v>0.035785462</v>
+      </c>
+      <c r="G4">
+        <v>0.026272617130890054</v>
+      </c>
+      <c r="H4">
+        <v>3884</v>
+      </c>
+      <c r="I4">
+        <v>0.17816925048828125</v>
+      </c>
+      <c r="J4">
+        <v>1.8666666488935906</v>
+      </c>
+      <c r="K4">
+        <v>0.5333333275173012</v>
       </c>
     </row>
   </sheetData>
